--- a/excel/example.xlsx
+++ b/excel/example.xlsx
@@ -6,15 +6,15 @@
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="工作表 1" sheetId="2" r:id="rId5"/>
-    <sheet name="工作表 1-1" sheetId="3" r:id="rId6"/>
-    <sheet name="工作表 1-1-1" sheetId="4" r:id="rId7"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="sheet3" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>此文稿由 Numbers 表格导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在单独的工作表中。请注意其中的公式计算可能与 Excel 不同。</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Excel 工作表名称</t>
   </si>
   <si>
-    <t>工作表 1</t>
+    <t>sheet1</t>
   </si>
   <si>
     <t>表格 1</t>
@@ -85,22 +85,16 @@
     <t>项目 10</t>
   </si>
   <si>
-    <t>工作表 1-1</t>
-  </si>
-  <si>
-    <t>刘亦菲</t>
-  </si>
-  <si>
-    <t>王菲</t>
-  </si>
-  <si>
-    <t>工作表 1-1-1</t>
-  </si>
-  <si>
-    <t>王子文</t>
-  </si>
-  <si>
-    <t>杨超越</t>
+    <t>sheet2</t>
+  </si>
+  <si>
+    <t>安迪1</t>
+  </si>
+  <si>
+    <t>安迪344台r</t>
+  </si>
+  <si>
+    <t>sheet3</t>
   </si>
 </sst>
 </file>
@@ -110,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -133,18 +127,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,19 +160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -200,48 +183,11 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -250,129 +196,133 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="17"/>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="17"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -381,13 +331,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -396,16 +346,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="17"/>
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,7 +410,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -437,91 +432,100 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -547,10 +551,8 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffd3d3d3"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
@@ -570,10 +572,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -750,14 +752,11 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -766,34 +765,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1041,12 +1040,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1337,7 +1336,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1695,18 +1694,20 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'工作表 1'!R1C1" tooltip="" display="工作表 1"/>
-    <hyperlink ref="D12" location="'工作表 1-1'!R1C1" tooltip="" display="工作表 1-1"/>
-    <hyperlink ref="D14" location="'工作表 1-1-1'!R1C1" tooltip="" display="工作表 1-1-1"/>
+    <hyperlink ref="D10" location="'sheet1'!R2C1" tooltip="" display="sheet1"/>
+    <hyperlink ref="D12" location="'sheet2'!R2C1" tooltip="" display="sheet2"/>
+    <hyperlink ref="D14" location="'sheet3'!R2C1" tooltip="" display="sheet3"/>
   </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1719,201 +1720,201 @@
       <c r="A1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" ht="23.15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" t="s" s="11">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s" s="11">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" t="s" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s" s="12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" t="s" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
         <f>SUM(F5:F9)</f>
         <v>150</v>
       </c>
     </row>
     <row r="5" ht="22.55" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s" s="18">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C5" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" t="s" s="23">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s" s="21">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="24">
+      <c r="C6" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" t="s" s="23">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="24">
+      <c r="C7" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s" s="23">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="24">
+      <c r="C8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="9" ht="23.15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s" s="28">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s" s="26">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="29">
+      <c r="C9" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="21.05" customHeight="1">
-      <c r="A10" t="s" s="32">
+      <c r="A10" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
         <f>SUM(F11:F15)</f>
         <v>125</v>
       </c>
     </row>
     <row r="11" ht="22.55" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" t="s" s="18">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="C11" t="s" s="19">
+      <c r="C11" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" t="s" s="23">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="C12" t="s" s="24">
+      <c r="C12" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" t="s" s="23">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="24">
+      <c r="C13" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="23">
+      <c r="A14" s="20"/>
+      <c r="B14" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="24">
+      <c r="C14" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" t="s" s="23">
+      <c r="A15" s="20"/>
+      <c r="B15" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C15" t="s" s="24">
+      <c r="C15" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24">
         <v>45</v>
       </c>
     </row>
@@ -1931,216 +1932,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.1719" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="33" customWidth="1"/>
+    <col min="2" max="6" width="16.1719" style="33" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" ht="23.15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" t="s" s="11">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s" s="11">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" t="s" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s" s="12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" t="s" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16">
-        <f>SUM(F5:F9)</f>
-        <v>150</v>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
+        <f>SUM(F5:F6)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="22.55" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s" s="18">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="23.15" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="27">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="21.05" customHeight="1">
+      <c r="A7" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32">
+        <f>SUM(F8:F9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="22.55" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C8" t="s" s="17">
         <v>24</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" t="s" s="23">
+    <row r="9" ht="23.15" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="24">
+      <c r="C9" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" t="s" s="23">
+    <row r="10" ht="21.05" customHeight="1">
+      <c r="A10" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
+        <f>SUM(F11)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="23.35" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" t="s" s="35">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26">
+      <c r="C11" t="s" s="36">
+        <v>25</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38">
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s" s="23">
+    <row r="12" ht="21.05" customHeight="1">
+      <c r="A12" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32">
+        <f>SUM(F13:F17)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" ht="22.55" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="22.35" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="23.15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s" s="28">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s" s="29">
-        <v>24</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="21.05" customHeight="1">
-      <c r="A10" t="s" s="32">
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34">
-        <f>SUM(F11:F15)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" ht="22.55" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s" s="19">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24">
         <v>25</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="23">
+    </row>
+    <row r="16" ht="22.35" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="C16" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24">
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" t="s" s="23">
+    <row r="17" ht="22.35" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C15" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26">
+      <c r="C17" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24">
         <v>45</v>
       </c>
     </row>
@@ -2158,216 +2187,218 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.17188" style="36" customWidth="1"/>
-    <col min="2" max="6" width="16.1719" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="36" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="39" customWidth="1"/>
+    <col min="2" max="6" width="16.1719" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" ht="23.15" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" t="s" s="11">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s" s="11">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" t="s" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" t="s" s="12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" t="s" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
         <f>SUM(F5:F9)</f>
         <v>150</v>
       </c>
     </row>
     <row r="5" ht="22.55" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" t="s" s="18">
+      <c r="A5" s="15"/>
+      <c r="B5" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="C5" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21">
+      <c r="C5" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" t="s" s="23">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s" s="21">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26">
+      <c r="C6" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" t="s" s="23">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26">
+      <c r="C7" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" t="s" s="23">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="24">
-        <v>27</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26">
+      <c r="C8" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="9" ht="23.15" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" t="s" s="28">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s" s="26">
         <v>16</v>
       </c>
-      <c r="C9" t="s" s="29">
-        <v>27</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31">
+      <c r="C9" t="s" s="27">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="21.05" customHeight="1">
-      <c r="A10" t="s" s="32">
+      <c r="A10" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
         <f>SUM(F11:F15)</f>
         <v>125</v>
       </c>
     </row>
     <row r="11" ht="22.55" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" t="s" s="18">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="C11" t="s" s="19">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
+      <c r="C11" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" t="s" s="23">
+      <c r="A12" s="20"/>
+      <c r="B12" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="C12" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26">
+      <c r="C12" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" t="s" s="23">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26">
+      <c r="C13" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" t="s" s="23">
+      <c r="A14" s="20"/>
+      <c r="B14" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="C14" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="C14" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" t="s" s="23">
+      <c r="A15" s="20"/>
+      <c r="B15" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C15" t="s" s="24">
-        <v>28</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26">
+      <c r="C15" t="s" s="22">
+        <v>17</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24">
         <v>45</v>
       </c>
     </row>
